--- a/doc/doc.xlsx
+++ b/doc/doc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t xml:space="preserve">Documentation api</t>
   </si>
@@ -120,6 +120,24 @@
     <t xml:space="preserve">Si id n est pas un nombre ou n existe pas : message : ‘Utilisateur non trouvee"
 Si reussite : message : ‘ Utilisateur supprime ’
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Authentification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connection de l utilisateur a son compte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://localhost:4000/login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_username:String 
+user_password :String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si username n existe pas =&gt; message : ‘Utilisateur non trouve’,
+Si mauvais mdp =&gt;  "message": "Le mot de passe ne correspond pas",
+Si success =&gt;   "message": "Login reussi",token</t>
   </si>
 </sst>
 </file>
@@ -129,7 +147,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -222,13 +240,6 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -285,7 +296,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -362,8 +373,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -445,8 +460,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="10:15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -567,9 +582,46 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="74.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="11" s="19" customFormat="true" ht="61.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="74.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" s="8" customFormat="true" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" s="13" customFormat="true" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AMJ12" s="15"/>
+    </row>
     <row r="13" customFormat="false" ht="113.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="81.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -580,6 +632,7 @@
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" display="http://localhost:4000/users"/>
     <hyperlink ref="C5" r:id="rId2" display="http://localhost:4000/user"/>
+    <hyperlink ref="C12" r:id="rId3" display="http://localhost:4000/login"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/doc/doc.xlsx
+++ b/doc/doc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t xml:space="preserve">Documentation api</t>
   </si>
@@ -138,6 +138,9 @@
     <t xml:space="preserve">Si username n existe pas =&gt; message : ‘Utilisateur non trouve’,
 Si mauvais mdp =&gt;  "message": "Le mot de passe ne correspond pas",
 Si success =&gt;   "message": "Login reussi",token</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -460,7 +463,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -622,7 +625,16 @@
       </c>
       <c r="AMJ12" s="15"/>
     </row>
-    <row r="13" customFormat="false" ht="113.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" s="13" customFormat="true" ht="113.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AMJ13" s="15"/>
+    </row>
     <row r="14" customFormat="false" ht="81.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/doc/doc.xlsx
+++ b/doc/doc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t xml:space="preserve">Documentation api</t>
   </si>
@@ -107,21 +107,6 @@
 Si non : message : ‘Utilisateur non trouvee’</t>
   </si>
   <si>
-    <t xml:space="preserve">Supprimer un utulisateur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://localhost:4000/user/id  
-Id:nombre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si id n est pas un nombre ou n existe pas : message : ‘Utilisateur non trouvee"
-Si reussite : message : ‘ Utilisateur supprime ’
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Authentification</t>
   </si>
   <si>
@@ -140,7 +125,44 @@
 Si success =&gt;   "message": "Login reussi",token</t>
   </si>
   <si>
+    <t xml:space="preserve">Presence</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Headers(Token)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajout de presence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://localhost:4000/presence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presence_type:String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oui
+'x-access-token’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si pas de token =&gt; message : ‘Pas de token’
+Si mauvais token =&gt; ‘Token invalide’
+Si success =&gt; message : ‘Presence sauvgardee’
+Si erreur= &gt; message : ‘Erreur de sauvgarde’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obtention de presence de l utilisateur connecte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://localhost:4000/presences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si pas de token =&gt; message : ‘Pas de token’
+Si mauvais token =&gt; ‘Token invalide’
+Si success =&gt; presences: aray
+Si erreur= &gt; message : ‘Presences non trouvee’</t>
   </si>
 </sst>
 </file>
@@ -150,7 +172,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -213,13 +235,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -240,12 +255,46 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,6 +305,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF0066B3"/>
         <bgColor rgb="FF008080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF72BF44"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
     <fill>
@@ -299,7 +354,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -324,64 +379,120 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -437,7 +548,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF72BF44"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFF58220"/>
       <rgbColor rgb="FFFF6600"/>
@@ -461,20 +572,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ15"/>
+  <dimension ref="A1:AMJ23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="18:23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="35.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="52.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="31.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="40.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="43.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="75.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="67.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="74.1"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -489,7 +600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" s="10" customFormat="true" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" s="9" customFormat="true" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -499,152 +610,220 @@
       <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" s="13" customFormat="true" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" s="12" customFormat="true" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AMJ4" s="15"/>
-    </row>
-    <row r="5" s="13" customFormat="true" ht="113.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AMJ4" s="14"/>
+    </row>
+    <row r="5" s="12" customFormat="true" ht="113.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AMJ5" s="15"/>
-    </row>
-    <row r="6" s="13" customFormat="true" ht="81.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AMJ5" s="14"/>
+    </row>
+    <row r="6" s="12" customFormat="true" ht="81.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="AMJ6" s="15"/>
-    </row>
-    <row r="7" s="13" customFormat="true" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AMJ6" s="14"/>
+    </row>
+    <row r="7" s="12" customFormat="true" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" s="13" customFormat="true" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+    <row r="9" s="20" customFormat="true" ht="55.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+    </row>
+    <row r="10" s="8" customFormat="true" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" s="12" customFormat="true" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="B11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="D11" s="16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="74.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="E11" s="15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" s="8" customFormat="true" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19" t="s">
+      <c r="AMJ11" s="14"/>
+    </row>
+    <row r="12" s="12" customFormat="true" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="22"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="15"/>
+      <c r="AMJ12" s="14"/>
+    </row>
+    <row r="13" s="28" customFormat="true" ht="79.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="AMJ13" s="29"/>
+    </row>
+    <row r="14" s="30" customFormat="true" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B14" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C14" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D14" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E14" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="30" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" s="13" customFormat="true" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="11" t="s">
+    <row r="15" s="31" customFormat="true" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C15" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" s="31" customFormat="true" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F17" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="AMJ12" s="15"/>
-    </row>
-    <row r="13" s="13" customFormat="true" ht="113.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="AMJ13" s="15"/>
-    </row>
-    <row r="14" customFormat="false" ht="81.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    </row>
+    <row r="18" s="6" customFormat="true" ht="62.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" s="9" customFormat="true" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="113.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="81.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="2:2"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" display="http://localhost:4000/users"/>
     <hyperlink ref="C5" r:id="rId2" display="http://localhost:4000/user"/>
-    <hyperlink ref="C12" r:id="rId3" display="http://localhost:4000/login"/>
+    <hyperlink ref="C11" r:id="rId3" display="http://localhost:4000/login"/>
+    <hyperlink ref="C15" r:id="rId4" display="http://localhost:4000/presence"/>
+    <hyperlink ref="C16" r:id="rId5" display="http://localhost:4000/presence"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/doc/doc.xlsx
+++ b/doc/doc.xlsx
@@ -161,7 +161,7 @@
   <si>
     <t xml:space="preserve">Si pas de token =&gt; message : ‘Pas de token’
 Si mauvais token =&gt; ‘Token invalide’
-Si success =&gt; presences: aray
+Si success =&gt; presences: array
 Si erreur= &gt; message : ‘Presences non trouvee’</t>
   </si>
 </sst>
@@ -172,7 +172,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -287,11 +287,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -354,7 +349,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -488,10 +483,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -574,13 +565,13 @@
   </sheetPr>
   <dimension ref="A1:AMJ23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="18:23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="52.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="52.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="31.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="40.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="43.38"/>
@@ -796,7 +787,7 @@
       <c r="C16" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="33" t="s">
         <v>34</v>
       </c>
       <c r="F16" s="33" t="s">
@@ -823,7 +814,7 @@
     <hyperlink ref="C5" r:id="rId2" display="http://localhost:4000/user"/>
     <hyperlink ref="C11" r:id="rId3" display="http://localhost:4000/login"/>
     <hyperlink ref="C15" r:id="rId4" display="http://localhost:4000/presence"/>
-    <hyperlink ref="C16" r:id="rId5" display="http://localhost:4000/presence"/>
+    <hyperlink ref="C16" r:id="rId5" display="http://localhost:4000/presences"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/doc/doc.xlsx
+++ b/doc/doc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
   <si>
     <t xml:space="preserve">Documentation api</t>
   </si>
@@ -128,6 +128,9 @@
     <t xml:space="preserve">Presence</t>
   </si>
   <si>
+    <t xml:space="preserve">presence</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -163,6 +166,9 @@
 Si mauvais token =&gt; ‘Token invalide’
 Si success =&gt; presences: array
 Si erreur= &gt; message : ‘Presences non trouvee’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A propos de l utilisateur</t>
   </si>
 </sst>
 </file>
@@ -172,7 +178,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -284,6 +290,13 @@
     <font>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -349,7 +362,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -419,19 +432,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -484,6 +493,14 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -563,15 +580,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ23"/>
+  <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="52.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="52.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="31.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="40.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="43.38"/>
@@ -590,6 +607,9 @@
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
+      <c r="D2" s="6" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" s="9" customFormat="true" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
@@ -673,15 +693,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" s="20" customFormat="true" ht="55.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" s="18" customFormat="true" ht="55.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="18"/>
       <c r="C9" s="19"/>
+      <c r="D9" s="18" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" s="8" customFormat="true" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -698,7 +720,7 @@
       </c>
     </row>
     <row r="11" s="12" customFormat="true" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -716,98 +738,140 @@
       <c r="AMJ11" s="14"/>
     </row>
     <row r="12" s="12" customFormat="true" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
       <c r="D12" s="16"/>
       <c r="E12" s="15"/>
       <c r="AMJ12" s="14"/>
     </row>
-    <row r="13" s="28" customFormat="true" ht="79.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="23" t="s">
+    <row r="13" s="27" customFormat="true" ht="79.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27" t="s">
+      <c r="D13" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="AMJ13" s="29"/>
-    </row>
-    <row r="14" s="30" customFormat="true" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="30" t="s">
+      <c r="E13" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="AMJ13" s="28"/>
+    </row>
+    <row r="14" s="29" customFormat="true" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="30" t="s">
+      <c r="E14" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" s="31" customFormat="true" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="31" t="s">
+    <row r="15" s="30" customFormat="true" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="31" t="s">
+      <c r="C15" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="D15" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="E15" s="32" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" s="31" customFormat="true" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="31" t="s">
+      <c r="F15" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="31" t="s">
+    </row>
+    <row r="16" s="30" customFormat="true" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="33" t="s">
+      <c r="C16" s="31" t="s">
         <v>38</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F17" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" s="6" customFormat="true" ht="62.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="19" s="9" customFormat="true" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-    </row>
-    <row r="20" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="113.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="81.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" s="33" customFormat="true" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C18" s="34"/>
+      <c r="D18" s="33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" s="29" customFormat="true" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" s="30" customFormat="true" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" display="http://localhost:4000/users"/>
@@ -815,6 +879,7 @@
     <hyperlink ref="C11" r:id="rId3" display="http://localhost:4000/login"/>
     <hyperlink ref="C15" r:id="rId4" display="http://localhost:4000/presence"/>
     <hyperlink ref="C16" r:id="rId5" display="http://localhost:4000/presences"/>
+    <hyperlink ref="C20" r:id="rId6" display="http://localhost:4000/presence"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
